--- a/tut05/output/0401ME34.xlsx
+++ b/tut05/output/0401ME34.xlsx
@@ -550,22 +550,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.653061224489796</v>
+        <v>7.65</v>
       </c>
       <c r="C6" t="n">
-        <v>6.954545454545454</v>
+        <v>6.95</v>
       </c>
       <c r="D6" t="n">
-        <v>7.851063829787234</v>
+        <v>7.85</v>
       </c>
       <c r="E6" t="n">
-        <v>7.714285714285714</v>
+        <v>7.71</v>
       </c>
       <c r="F6" t="n">
-        <v>6.608695652173913</v>
+        <v>6.61</v>
       </c>
       <c r="G6" t="n">
-        <v>7.043478260869565</v>
+        <v>7.04</v>
       </c>
       <c r="H6" t="n">
         <v>8.550000000000001</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.653061224489796</v>
+        <v>7.65</v>
       </c>
       <c r="C8" t="n">
-        <v>7.32258064516129</v>
+        <v>7.32</v>
       </c>
       <c r="D8" t="n">
         <v>7.5</v>
       </c>
       <c r="E8" t="n">
-        <v>7.555555555555555</v>
+        <v>7.56</v>
       </c>
       <c r="F8" t="n">
-        <v>7.370212765957447</v>
+        <v>7.37</v>
       </c>
       <c r="G8" t="n">
-        <v>7.316725978647687</v>
+        <v>7.32</v>
       </c>
       <c r="H8" t="n">
-        <v>7.470404984423676</v>
+        <v>7.47</v>
       </c>
       <c r="I8" t="n">
-        <v>7.468144044321329</v>
+        <v>7.47</v>
       </c>
     </row>
   </sheetData>
